--- a/Plantilla proyecto RF y RNF.xlsx
+++ b/Plantilla proyecto RF y RNF.xlsx
@@ -80,10 +80,10 @@
     <t>Encargado de crear la plataforma, donde se archiva toda la informacion (Registro del personal).</t>
   </si>
   <si>
-    <t>RF003  RF011 RF013 RF017</t>
+    <t>RF003  RF004  RF011 RF013 RF017</t>
   </si>
   <si>
-    <t>Registro del personal                                                                                                                                             Scanner de manilla                                                                                                                                                       Base de datos                                                                                                                                     Tiempo de reaccion</t>
+    <t xml:space="preserve">Registro del personal                                                                      Modificaciones                                                                                                                                               Scanner de manilla                                                                                                                                                       Base de datos                                                                                                                                     Tiempo de reaccion                                                                                    </t>
   </si>
   <si>
     <t>Rector</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">Director del establecimiento educativo, es el inmediato superior de los docentes y estudiantes, tiene la responsabilidad de solicitar y aceptar el proyecto. </t>
   </si>
   <si>
-    <t>RF001      RF002      RF003   RF006   RF016 RF020 RF021</t>
+    <t>RF001      RF002      RF003   RF006   RF016 RF020 RF005</t>
   </si>
   <si>
     <t>Publicacion de datos                                                         Privilegios unicos de administrador                                            Registro del personal                                                          Descarga de datos                                                                                                   Copia de seguridad                                                            Impresion de registros                                                             Restauracion de contraseña</t>
@@ -134,7 +134,7 @@
     <t>Elabora la interfaz del producto diseñando una pantalla de inico con facil navegacion.</t>
   </si>
   <si>
-    <t>RF006  RF014  RF016  RF020 RF021</t>
+    <t>RF006  RF014  RF016  RF020 RF005</t>
   </si>
   <si>
     <t>Descarga de datos                                                                                                                                           Formularios obligatorios                                                                                                                                    Copia de seguridad                                                                                                                                                Impresion de registros                                                                                                                                         Restauracion de contraseña</t>
@@ -149,22 +149,22 @@
     <t>RF005  RF008</t>
   </si>
   <si>
-    <t>Hora                                                                         Recargade bateria</t>
+    <t>Restauracion de contraseña                                                                        Recarga de bateria</t>
   </si>
   <si>
     <t>R004</t>
   </si>
   <si>
-    <t>Administrador de configuracion</t>
+    <t>Directivo</t>
   </si>
   <si>
-    <t xml:space="preserve">Administra el desempeño de las configuraciones de la organizacion, facilitando y procesando todods los requerimientos </t>
+    <t>Se encarga de administrar el control de cambio de la configuracion implantacion y revicion del proyecto</t>
   </si>
   <si>
-    <t>RF004  RF005 RF008 RF009  RF010</t>
+    <t>RF021 RF008 RF009  RF010</t>
   </si>
   <si>
-    <t>Modificaciones                                                                                                                                                                                                  Hora                                                                                                                                                                                                              Recarga de bateria                                                                                                                                                                                 Resistencia al agua                                                                                                                                                                                     Entrada del cargador</t>
+    <t>Hora                                                                                                                                                                                                              Recarga de bateria                                                                                                                                                                                 Resistencia al agua                                                                                                                                                                                     Entrada del cargador</t>
   </si>
   <si>
     <t>Personal de seguridad</t>
